--- a/Calvez demo dataset.xlsx
+++ b/Calvez demo dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjcar\Documents\GitHub\comet-standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355F4F7F-48BC-486F-B143-19BD08839286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63372819-AE99-4B32-9F8A-80F4FB4F99C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65850" yWindow="10590" windowWidth="20070" windowHeight="14085" xr2:uid="{89F2FA9B-E8C5-439D-AE85-B18FFCDF3DD2}"/>
+    <workbookView xWindow="54840" yWindow="5100" windowWidth="20070" windowHeight="14085" xr2:uid="{89F2FA9B-E8C5-439D-AE85-B18FFCDF3DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>Rabbit</t>
   </si>
   <si>
-    <t>Exposure host</t>
-  </si>
-  <si>
     <t>Host lineage / origin</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t># dissem.</t>
   </si>
   <si>
-    <t>Transmission host</t>
-  </si>
-  <si>
     <t>Tissue (transm.)</t>
   </si>
   <si>
@@ -233,6 +227,12 @@
   </si>
   <si>
     <t># transm.</t>
+  </si>
+  <si>
+    <t>Host (exp.)</t>
+  </si>
+  <si>
+    <t>Host (transm.)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,32 +323,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9041AC-C0C9-48FE-AB81-23883D280995}">
   <dimension ref="A1:AO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -695,19 +715,23 @@
     <col min="14" max="14" width="14.46484375" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.1328125" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.19921875" customWidth="1"/>
     <col min="18" max="18" width="34.73046875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.06640625" customWidth="1"/>
     <col min="21" max="21" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" customWidth="1"/>
     <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.19921875" customWidth="1"/>
     <col min="32" max="32" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.33203125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9" style="1" customWidth="1"/>
+    <col min="37" max="37" width="11.3984375" customWidth="1"/>
+    <col min="39" max="39" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -732,1315 +756,1531 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="13">
         <v>2016</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="13">
         <v>2014</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="R2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" s="13">
+        <v>1</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2">
-        <v>28</v>
-      </c>
-      <c r="Y2">
-        <v>28</v>
-      </c>
-      <c r="Z2">
+      <c r="X2" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="13">
         <v>6</v>
       </c>
-      <c r="AA2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AA2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="18">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="18">
+        <v>17</v>
+      </c>
+      <c r="AH2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" t="s">
-        <v>62</v>
+      <c r="AL2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13">
         <v>2016</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="13">
         <v>2014</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="R3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" s="13">
+        <v>1</v>
+      </c>
+      <c r="W3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3">
-        <v>28</v>
-      </c>
-      <c r="Y3">
-        <v>28</v>
-      </c>
-      <c r="Z3">
+      <c r="X3" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="13">
         <v>9</v>
       </c>
-      <c r="AA3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="AA3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" t="s">
-        <v>62</v>
+      <c r="AL3" s="18">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13">
         <v>2016</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="13">
         <v>2014</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="R4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" s="13">
+        <v>1</v>
+      </c>
+      <c r="W4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4">
-        <v>28</v>
-      </c>
-      <c r="Y4">
-        <v>28</v>
-      </c>
-      <c r="Z4">
+      <c r="X4" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="13">
         <v>14</v>
       </c>
-      <c r="AA4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AA4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" s="18">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="18">
+        <v>15</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK4" t="s">
-        <v>62</v>
+      <c r="AL4" s="18">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13">
         <v>2016</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="13">
         <v>2014</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="R5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" s="13">
+        <v>1</v>
+      </c>
+      <c r="W5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5">
-        <v>28</v>
-      </c>
-      <c r="Y5">
-        <v>28</v>
-      </c>
-      <c r="Z5">
+      <c r="X5" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="13">
         <v>21</v>
       </c>
-      <c r="AA5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="AA5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>32</v>
+      </c>
+      <c r="AH5" s="18">
+        <v>25</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK5" t="s">
-        <v>62</v>
+      <c r="AL5" s="18">
+        <v>25</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13">
         <v>2016</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="13">
         <v>2014</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="R6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" s="13">
+        <v>1</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V6">
+      <c r="X6" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>24</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>21</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>21</v>
+      </c>
+      <c r="AH6" s="18">
         <v>1</v>
       </c>
-      <c r="W6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6">
-        <v>28</v>
-      </c>
-      <c r="Y6">
-        <v>28</v>
-      </c>
-      <c r="Z6">
-        <v>6</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AI6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK6" t="s">
-        <v>62</v>
+      <c r="AL6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13">
         <v>2016</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="13">
         <v>2014</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="R7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" s="13">
+        <v>1</v>
+      </c>
+      <c r="W7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V7">
+      <c r="X7" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>22</v>
+      </c>
+      <c r="AH7" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="18">
         <v>1</v>
-      </c>
-      <c r="W7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X7">
-        <v>28</v>
-      </c>
-      <c r="Y7">
-        <v>28</v>
-      </c>
-      <c r="Z7">
-        <v>9</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13">
         <v>2016</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="13">
         <v>2014</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="R8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" s="13">
+        <v>1</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8" t="s">
-        <v>43</v>
-      </c>
-      <c r="X8">
-        <v>28</v>
-      </c>
-      <c r="Y8">
-        <v>28</v>
-      </c>
-      <c r="Z8">
+      <c r="X8" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="13">
         <v>14</v>
       </c>
-      <c r="AA8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ8" t="s">
+      <c r="AA8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>30</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>23</v>
+      </c>
+      <c r="AH8" s="18">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK8" t="s">
-        <v>62</v>
+      <c r="AL8" s="18">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13">
         <v>2016</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="13">
         <v>2014</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="R9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" s="13">
+        <v>1</v>
+      </c>
+      <c r="W9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X9">
-        <v>28</v>
-      </c>
-      <c r="Y9">
-        <v>28</v>
-      </c>
-      <c r="Z9">
+      <c r="X9" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="13">
         <v>21</v>
       </c>
-      <c r="AA9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ9" t="s">
+      <c r="AA9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>19</v>
+      </c>
+      <c r="AH9" s="18">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK9" t="s">
-        <v>62</v>
+      <c r="AL9" s="18">
+        <v>10</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13">
         <v>2016</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="13">
         <v>2014</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R10" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="R10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" s="13">
+        <v>1</v>
+      </c>
+      <c r="W10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10">
-        <v>28</v>
-      </c>
-      <c r="Y10">
-        <v>28</v>
-      </c>
-      <c r="Z10">
+      <c r="X10" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="13">
         <v>6</v>
       </c>
-      <c r="AA10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AA10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC10" s="18">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG10" s="18">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK10" t="s">
-        <v>62</v>
+      <c r="AL10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13">
         <v>2016</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="13">
         <v>2014</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="R11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" s="13">
+        <v>1</v>
+      </c>
+      <c r="W11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11" t="s">
-        <v>43</v>
-      </c>
-      <c r="X11">
-        <v>28</v>
-      </c>
-      <c r="Y11">
-        <v>28</v>
-      </c>
-      <c r="Z11">
+      <c r="X11" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="13">
         <v>9</v>
       </c>
-      <c r="AA11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AA11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>7</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK11" t="s">
-        <v>62</v>
+      <c r="AL11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="13">
         <v>2016</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="13">
         <v>2014</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="R12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" s="13">
+        <v>1</v>
+      </c>
+      <c r="W12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V12">
+      <c r="X12" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>48</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>24</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>24</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>6</v>
+      </c>
+      <c r="AI12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL12" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM12" s="18">
         <v>1</v>
-      </c>
-      <c r="W12" t="s">
-        <v>43</v>
-      </c>
-      <c r="X12">
-        <v>28</v>
-      </c>
-      <c r="Y12">
-        <v>28</v>
-      </c>
-      <c r="Z12">
-        <v>14</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="13">
         <v>2016</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="13">
         <v>2014</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="R13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" s="13">
+        <v>1</v>
+      </c>
+      <c r="W13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13" t="s">
-        <v>43</v>
-      </c>
-      <c r="X13">
-        <v>28</v>
-      </c>
-      <c r="Y13">
-        <v>28</v>
-      </c>
-      <c r="Z13">
+      <c r="X13" s="13">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="13">
         <v>21</v>
       </c>
-      <c r="AA13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AA13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC13" s="18">
         <v>48</v>
       </c>
-      <c r="AE13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ13" t="s">
+      <c r="AD13" s="18">
+        <v>18</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG13" s="18">
+        <v>18</v>
+      </c>
+      <c r="AH13" s="18">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" t="s">
-        <v>62</v>
+      <c r="AL13" s="18">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="18">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
